--- a/pred_ohlcv/54_21/2019-10-06 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 LINK ohlcv.xlsx
@@ -3356,7 +3356,7 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-229880.2937642864</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-229914.2432642864</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-232185.3259642864</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-232153.2759642864</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-232153.3759642864</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-232147.6998642864</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-232148.6998642864</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-232148.6998642864</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-231658.5695642864</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-231858.5695642864</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-233058.5695642864</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-233382.5140642864</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-233157.6656642864</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-233122.0656642864</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-233122.0656642864</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-232849.4246642864</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-232828.3978642864</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>171016.1335243517</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>173444.2126243517</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>177980.2686243517</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>183629.4988243517</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>180638.5722573863</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>182364.8365573864</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>180016.2908573864</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>180820.7967573864</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>179217.1516573864</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>183892.3773573864</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>183654.8863573864</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>182927.1365573864</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>182758.3431573863</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>183189.9394573863</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>184142.3619963158</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>185582.3126963158</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>226885.6434025363</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>206107.9303025363</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>198263.3520025364</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>200317.3653025363</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>204966.2983227454</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>203192.8553242171</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>205967.7522162064</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>192012.4972011946</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>203705.6069011946</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>201711.0117011946</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>204627.5605011946</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>194746.1012011946</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>195055.9923011946</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>190237.7591011946</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>190530.9389011947</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>189343.4678011947</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>187026.6376011947</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>193047.0048011947</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>192460.2944011947</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>192648.7432685998</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>192953.1301685998</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>193737.6322685998</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>193485.7399685998</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>190363.6773377</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>190115.1827377</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>189155.0005377</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>188742.0089377</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>185080.9527377</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>186938.2081377</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>187096.0125377</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>184443.8840377</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>185453.6821377</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-06 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-06 LINK ohlcv.xlsx
@@ -2706,7 +2706,7 @@
         <v>-228355.6350493204</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-228334.3557493204</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-228340.8491493204</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-229210.6848493204</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-229210.6848493204</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-229087.1776493204</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-229167.8570493204</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-229593.6176493204</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-229632.9544493204</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-229282.2910493204</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-230477.5081493204</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-230477.5081493204</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-230197.2435493204</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-229645.8124642864</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-228920.8124642864</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-228948.2124642864</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-229142.5124642864</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-229137.5124642864</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-228560.1968642864</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-228585.1968642864</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-228580.1968642864</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-228580.1968642864</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-229862.8213642864</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-229606.4255642864</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-229056.3397642864</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-229054.9532642864</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-229055.9507642864</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-229083.6553642864</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-229294.1816642864</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-229755.3597642864</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-229785.3559642864</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-229880.2937642864</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-229914.2432642864</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-232649.1929642864</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-232518.0424642864</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-232518.0424642864</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-232018.0424642864</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-231492.8427642864</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-226344.6228642864</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-226344.6228642864</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-226636.4167642864</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-226636.4167642864</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-231929.7249642864</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-231929.7249642864</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-148111.0483642864</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>165019.4659243517</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>171016.1335243517</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>173444.2126243517</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>177980.2686243517</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>183629.4988243517</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>180638.5722573863</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>182364.8365573864</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>180016.2908573864</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>180820.7967573864</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>179205.7967573864</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>179217.1516573864</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>182958.0474573864</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>183892.3773573864</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>183654.8863573864</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>182927.1365573864</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>182758.3431573863</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>183189.9394573863</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>184142.3619963158</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>185582.3126963158</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>226885.6434025363</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>206107.9303025363</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>198263.3520025364</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>200317.3653025363</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>204966.2983227454</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>203192.8553242171</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>205967.7522162064</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>192012.4972011946</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>203705.6069011946</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>201711.0117011946</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>204627.5605011946</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>196460.5814011946</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>194746.1012011946</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>195055.9923011946</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>190237.7591011946</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>190530.9389011947</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>193047.0048011947</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>194105.5148011947</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>192460.2944011947</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>192648.7432685998</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>192953.1301685998</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>193737.6322685998</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>193485.7399685998</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>190363.6773377</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>190115.1827377</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>189155.0005377</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>188742.0089377</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>185080.9527377</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>186938.2081377</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>187096.0125377</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>184443.8840377</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>185453.6821377</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
